--- a/кратчайший путь_экзамен.xlsx
+++ b/кратчайший путь_экзамен.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE1DAF-55E0-8F42-A828-2147100E0815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8439C6C8-274D-7345-9E03-5E95C204A963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16760" xr2:uid="{C2E072A8-E44F-2F49-969F-E2E0882BAC26}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121F942B-E853-F84E-98B1-43BB04E92A36}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="AF5" s="28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="28">
         <v>0</v>
